--- a/biology/Botanique/Pseudevernia_furfuracea/Pseudevernia_furfuracea.xlsx
+++ b/biology/Botanique/Pseudevernia_furfuracea/Pseudevernia_furfuracea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudevernia furfuracea, appelé aussi mousse de chêne ou mousse des arbres, est une espèce de lichens de la famille des Parmeliaceae[2]. Cette espèce se rencontre communément sur les conifères[2] notamment dans les régions boréales et montagnardes de l'Europe et de l'Amérique centrale du nord[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudevernia furfuracea, appelé aussi mousse de chêne ou mousse des arbres, est une espèce de lichens de la famille des Parmeliaceae. Cette espèce se rencontre communément sur les conifères notamment dans les régions boréales et montagnardes de l'Europe et de l'Amérique centrale du nord. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudevernia furfuracea vient du grec pseudês, « faux », et de Evernia (ressemble à ce genre de lichen). L'épithète spécifique furfuracea vient du latin furfur, « farinacé », couvert de petites écailles plates, rappelant les pellicules de son qui correspondent aux nombreuses isidies se détachant facilement du thalle, et que l'on trouve souvent au sol, détachées par le vent[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudevernia furfuracea vient du grec pseudês, « faux », et de Evernia (ressemble à ce genre de lichen). L'épithète spécifique furfuracea vient du latin furfur, « farinacé », couvert de petites écailles plates, rappelant les pellicules de son qui correspondent aux nombreuses isidies se détachant facilement du thalle, et que l'on trouve souvent au sol, détachées par le vent. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son thalle est foliacé[3] et bicolore. Il est gris foncé sur la face supérieure et noir sur la face inférieure[2] avec des taches blanches et des canaux noirs visibles[3]. Il présente aussi des isidies servant à sa reproduction[3].
-Le lichen est une symbiose entre un champignon et une algue. Pseudevernia furfuracea est en interaction avec une algue verte comme photobionte[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son thalle est foliacé et bicolore. Il est gris foncé sur la face supérieure et noir sur la face inférieure avec des taches blanches et des canaux noirs visibles. Il présente aussi des isidies servant à sa reproduction.
+Le lichen est une symbiose entre un champignon et une algue. Pseudevernia furfuracea est en interaction avec une algue verte comme photobionte.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Caractéristiques écologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lichen Pseudevernia furfuracea est soumis à des taux d'humidité changeant. Il y a de fortes variations de quantité d'eau dans son thalle, ce qui fait de lui une plante résistante à la sécheresse. C'est l'un des lichens les plus adaptés et les plus résistants à la dessiccation[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lichen Pseudevernia furfuracea est soumis à des taux d'humidité changeant. Il y a de fortes variations de quantité d'eau dans son thalle, ce qui fait de lui une plante résistante à la sécheresse. C'est l'un des lichens les plus adaptés et les plus résistants à la dessiccation.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 avril 2021)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 avril 2021) :
 variété Pseudevernia furfuracea var. ceratea (Ach.) D. Hawksw.
 variété Pseudevernia furfuracea var. furfuracea</t>
         </is>
@@ -639,12 +659,87 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biorveillance
-Pseudevernia furfuracea, du fait de sa sensibilité à la pollution, est utilisé comme bioindicateur. Sa sensibilité est liée à ses chlorophylles dont la pollution entraine une variation de leur photochimie. Cette caractéristique permet d'évaluer la qualité de l'air en fonction du nombre d'individus présents[6]. Son utilisation en tant que bioindicateur est très utile car ce lichen colonise bon nombre de milieux terrestres[7].
-Vertus médicinales
-Ce lichen est notamment connu dans le domaine médical pour la guérison des blessures car il produit des anti-oxydants et des anti-inflammatoires. 
-Parfumerie
-Pseudevernia furfuracea est très réputé en parfumerie : ses extraits apportent des notes marines particulièrement mises à profit dans les parfums féminins, tandis que ceux d'Evernia prunastri apportent des notes boisées variées en fonction de leur arbre support, utilisées en particulier dans les eaux de toilette masculines[2]. L'utilité de ces deux mousses de chêne est renforcée par leur capacité à produire des antioxydants stabilisateurs des parfums[8].
+          <t>Biorveillance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudevernia furfuracea, du fait de sa sensibilité à la pollution, est utilisé comme bioindicateur. Sa sensibilité est liée à ses chlorophylles dont la pollution entraine une variation de leur photochimie. Cette caractéristique permet d'évaluer la qualité de l'air en fonction du nombre d'individus présents. Son utilisation en tant que bioindicateur est très utile car ce lichen colonise bon nombre de milieux terrestres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pseudevernia_furfuracea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudevernia_furfuracea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vertus médicinales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lichen est notamment connu dans le domaine médical pour la guérison des blessures car il produit des anti-oxydants et des anti-inflammatoires. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pseudevernia_furfuracea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudevernia_furfuracea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parfumerie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudevernia furfuracea est très réputé en parfumerie : ses extraits apportent des notes marines particulièrement mises à profit dans les parfums féminins, tandis que ceux d'Evernia prunastri apportent des notes boisées variées en fonction de leur arbre support, utilisées en particulier dans les eaux de toilette masculines. L'utilité de ces deux mousses de chêne est renforcée par leur capacité à produire des antioxydants stabilisateurs des parfums.
 </t>
         </is>
       </c>
